--- a/src/main/resources/xlsx/pcs/wy-4-1.xlsx
+++ b/src/main/resources/xlsx/pcs/wy-4-1.xlsx
@@ -77,8 +77,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>全校分党委数：pc    全校党支部数：bc     全校党员总数（含预备党员）：mc      应参会党员总数：ec      实参会党员总数：ac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">中国共产党北京师范大学第十三届委员会委员候选人推荐提名汇总表
+      <t xml:space="preserve">title候选人推荐提名汇总表
 </t>
     </r>
     <r>
@@ -89,12 +93,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>（“一下一上”阶段）</t>
+      <t>（“stage”阶段）</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全校分党委数：pc    全校党支部数：bc     全校党员总数（含预备党员）：mc      应参会党员总数：ec      实参会党员总数：ac</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -289,6 +289,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -312,9 +315,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,7 +599,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -615,61 +615,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="A2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="14" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -697,8 +697,8 @@
       <c r="J4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
@@ -717,18 +717,18 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/src/main/resources/xlsx/pcs/wy-4-1.xlsx
+++ b/src/main/resources/xlsx/pcs/wy-4-1.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所在单位及职务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>职称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,10 +70,6 @@
   <si>
     <t>推荐提名的
 党支部数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全校分党委数：pc    全校党支部数：bc     全校党员总数（含预备党员）：mc      应参会党员总数：ec      实参会党员总数：ac</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -95,6 +87,14 @@
       </rPr>
       <t>（“stage”阶段）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全校二级党组织数：pc    全校党支部数：bc     全校党员总数（含预备党员）：mc      应参会党员总数：ec      实参会党员总数：ac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +599,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -616,7 +616,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
@@ -662,10 +662,10 @@
       <c r="I3" s="18"/>
       <c r="J3" s="19"/>
       <c r="K3" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -683,19 +683,19 @@
         <v>5</v>
       </c>
       <c r="F4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
